--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.7135126646253</v>
+        <v>277.131676330581</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.5710358179338</v>
+        <v>379.1837857421808</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.3165369610202</v>
+        <v>342.9950174187319</v>
       </c>
       <c r="AD2" t="n">
-        <v>208713.5126646252</v>
+        <v>277131.676330581</v>
       </c>
       <c r="AE2" t="n">
-        <v>285571.0358179338</v>
+        <v>379183.7857421808</v>
       </c>
       <c r="AF2" t="n">
         <v>1.174725417697771e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>258316.5369610202</v>
+        <v>342995.0174187319</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.9883041203861</v>
+        <v>230.7194317424754</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.3219852858782</v>
+        <v>315.6805051328651</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.8631852867426</v>
+        <v>285.5524007834496</v>
       </c>
       <c r="AD3" t="n">
-        <v>171988.3041203861</v>
+        <v>230719.4317424754</v>
       </c>
       <c r="AE3" t="n">
-        <v>235321.9852858782</v>
+        <v>315680.505132865</v>
       </c>
       <c r="AF3" t="n">
         <v>1.338513886090455e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.72526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>212863.1852867426</v>
+        <v>285552.4007834496</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.8405486398656</v>
+        <v>237.8565237328091</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.0657726540039</v>
+        <v>325.4457892603112</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.5816006674582</v>
+        <v>294.3856998994377</v>
       </c>
       <c r="AD2" t="n">
-        <v>179840.5486398656</v>
+        <v>237856.5237328091</v>
       </c>
       <c r="AE2" t="n">
-        <v>246065.7726540039</v>
+        <v>325445.7892603112</v>
       </c>
       <c r="AF2" t="n">
         <v>1.411164383637817e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>222581.6006674582</v>
+        <v>294385.6998994377</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.7429287986199</v>
+        <v>237.7589038915634</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.9322048805282</v>
+        <v>325.3122214868354</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.4607804148194</v>
+        <v>294.2648796467989</v>
       </c>
       <c r="AD3" t="n">
-        <v>179742.9287986199</v>
+        <v>237758.9038915634</v>
       </c>
       <c r="AE3" t="n">
-        <v>245932.2048805282</v>
+        <v>325312.2214868354</v>
       </c>
       <c r="AF3" t="n">
         <v>1.415622330454176e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.12890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>222460.7804148194</v>
+        <v>294264.8796467989</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.6996996991242</v>
+        <v>289.4420683904538</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.7616010104645</v>
+        <v>396.0274072546666</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.7254061071088</v>
+        <v>358.2311073342375</v>
       </c>
       <c r="AD2" t="n">
-        <v>214699.6996991242</v>
+        <v>289442.0683904538</v>
       </c>
       <c r="AE2" t="n">
-        <v>293761.6010104645</v>
+        <v>396027.4072546666</v>
       </c>
       <c r="AF2" t="n">
         <v>1.549801312924949e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>265725.4061071088</v>
+        <v>358231.1073342375</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.0524091861298</v>
+        <v>256.430400085481</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.0380907688871</v>
+        <v>350.8593863076171</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.220420351733</v>
+        <v>317.3738589127643</v>
       </c>
       <c r="AD2" t="n">
-        <v>190052.4091861297</v>
+        <v>256430.4000854811</v>
       </c>
       <c r="AE2" t="n">
-        <v>260038.0907688871</v>
+        <v>350859.3863076171</v>
       </c>
       <c r="AF2" t="n">
         <v>1.523232383864701e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.62630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>235220.420351733</v>
+        <v>317373.8589127643</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.4272585016093</v>
+        <v>335.8713595758225</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.0679143344527</v>
+        <v>459.5540117702523</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.2803800542254</v>
+        <v>415.694821875005</v>
       </c>
       <c r="AD2" t="n">
-        <v>243427.2585016093</v>
+        <v>335871.3595758225</v>
       </c>
       <c r="AE2" t="n">
-        <v>333067.9143344527</v>
+        <v>459554.0117702523</v>
       </c>
       <c r="AF2" t="n">
         <v>1.529737599145921e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.94921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>301280.3800542254</v>
+        <v>415694.821875005</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.6014086330679</v>
+        <v>239.7876610183233</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.4750589803623</v>
+        <v>328.0880564901145</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.7609480882843</v>
+        <v>296.7757928532748</v>
       </c>
       <c r="AD2" t="n">
-        <v>181601.4086330679</v>
+        <v>239787.6610183233</v>
       </c>
       <c r="AE2" t="n">
-        <v>248475.0589803623</v>
+        <v>328088.0564901145</v>
       </c>
       <c r="AF2" t="n">
         <v>1.376379231611247e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.17447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>224760.9480882843</v>
+        <v>296775.7928532748</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.4853080911066</v>
+        <v>238.671560476362</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.9479609799708</v>
+        <v>326.560958489723</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.3795941777542</v>
+        <v>295.3944389427447</v>
       </c>
       <c r="AD3" t="n">
-        <v>180485.3080911066</v>
+        <v>238671.560476362</v>
       </c>
       <c r="AE3" t="n">
-        <v>246947.9609799708</v>
+        <v>326560.958489723</v>
       </c>
       <c r="AF3" t="n">
         <v>1.391926885546036e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>223379.5941777542</v>
+        <v>295394.4389427447</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.7063980445292</v>
+        <v>373.5342618681098</v>
       </c>
       <c r="AB2" t="n">
-        <v>385.4431218136828</v>
+        <v>511.086056256541</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.6569712406032</v>
+        <v>462.3087203612011</v>
       </c>
       <c r="AD2" t="n">
-        <v>281706.3980445292</v>
+        <v>373534.2618681098</v>
       </c>
       <c r="AE2" t="n">
-        <v>385443.1218136827</v>
+        <v>511086.056256541</v>
       </c>
       <c r="AF2" t="n">
         <v>1.48878364337503e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.17578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>348656.9712406032</v>
+        <v>462308.7203612011</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.2742123006868</v>
+        <v>246.3591533670564</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.290886289744</v>
+        <v>337.079462235428</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.8806683702431</v>
+        <v>304.9090714537758</v>
       </c>
       <c r="AD2" t="n">
-        <v>179274.2123006868</v>
+        <v>246359.1533670564</v>
       </c>
       <c r="AE2" t="n">
-        <v>245290.8862897439</v>
+        <v>337079.462235428</v>
       </c>
       <c r="AF2" t="n">
         <v>1.469365867510642e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>221880.668370243</v>
+        <v>304909.0714537757</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.4037479601724</v>
+        <v>237.2429707530468</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.468122693762</v>
+        <v>324.6062990053538</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.0409895806145</v>
+        <v>293.6263294161812</v>
       </c>
       <c r="AD2" t="n">
-        <v>179403.7479601724</v>
+        <v>237242.9707530468</v>
       </c>
       <c r="AE2" t="n">
-        <v>245468.122693762</v>
+        <v>324606.2990053538</v>
       </c>
       <c r="AF2" t="n">
         <v>1.431786836916639e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>222040.9895806145</v>
+        <v>293626.3294161812</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.7034859046746</v>
+        <v>237.5427086975491</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.8782373729346</v>
+        <v>325.0164136845264</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.4119634904066</v>
+        <v>293.9973033259733</v>
       </c>
       <c r="AD3" t="n">
-        <v>179703.4859046746</v>
+        <v>237542.7086975491</v>
       </c>
       <c r="AE3" t="n">
-        <v>245878.2373729346</v>
+        <v>325016.4136845264</v>
       </c>
       <c r="AF3" t="n">
         <v>1.431624392301604e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.31119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>222411.9634904066</v>
+        <v>293997.3033259733</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.8281204952341</v>
+        <v>258.1337999138539</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.731209087085</v>
+        <v>353.1900531016593</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.9428270269309</v>
+        <v>319.482090138989</v>
       </c>
       <c r="AD2" t="n">
-        <v>189828.1204952341</v>
+        <v>258133.7999138539</v>
       </c>
       <c r="AE2" t="n">
-        <v>259731.209087085</v>
+        <v>353190.0531016593</v>
       </c>
       <c r="AF2" t="n">
         <v>1.263742056751536e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>234942.8270269309</v>
+        <v>319482.090138989</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.3934035435482</v>
+        <v>229.9704134041746</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.5080160714877</v>
+        <v>314.6556651980454</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.1269001517604</v>
+        <v>284.625370133637</v>
       </c>
       <c r="AD3" t="n">
-        <v>171393.4035435482</v>
+        <v>229970.4134041746</v>
       </c>
       <c r="AE3" t="n">
-        <v>234508.0160714877</v>
+        <v>314655.6651980454</v>
       </c>
       <c r="AF3" t="n">
         <v>1.357611459140193e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.80338541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>212126.9001517604</v>
+        <v>284625.370133637</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.6079112067374</v>
+        <v>256.1446199046937</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.4299090236158</v>
+        <v>350.4683692565322</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.6702826186417</v>
+        <v>317.0201599802389</v>
       </c>
       <c r="AD2" t="n">
-        <v>189607.9112067374</v>
+        <v>256144.6199046937</v>
       </c>
       <c r="AE2" t="n">
-        <v>259429.9090236158</v>
+        <v>350468.3692565322</v>
       </c>
       <c r="AF2" t="n">
         <v>1.504043757798272e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>234670.2826186417</v>
+        <v>317020.1599802389</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.5103321425768</v>
+        <v>277.6836336729729</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.083570562661</v>
+        <v>379.9389981286807</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.6391034774756</v>
+        <v>343.6781533950117</v>
       </c>
       <c r="AD2" t="n">
-        <v>202510.3321425768</v>
+        <v>277683.6336729729</v>
       </c>
       <c r="AE2" t="n">
-        <v>277083.5705626609</v>
+        <v>379938.9981286807</v>
       </c>
       <c r="AF2" t="n">
         <v>1.546403390162658e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>250639.1034774756</v>
+        <v>343678.1533950117</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.0992512405104</v>
+        <v>311.8187925806031</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.0954585758728</v>
+        <v>426.6442284830277</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.3095060382111</v>
+        <v>385.9259021155423</v>
       </c>
       <c r="AD2" t="n">
-        <v>228099.2512405104</v>
+        <v>311818.7925806032</v>
       </c>
       <c r="AE2" t="n">
-        <v>312095.4585758728</v>
+        <v>426644.2284830277</v>
       </c>
       <c r="AF2" t="n">
         <v>1.545358578170815e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.50390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>282309.5060382111</v>
+        <v>385925.9021155423</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.7838795326142</v>
+        <v>447.1291451511772</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.1708059495604</v>
+        <v>611.7818223415381</v>
       </c>
       <c r="AC2" t="n">
-        <v>418.0618728905337</v>
+        <v>553.3942238584415</v>
       </c>
       <c r="AD2" t="n">
-        <v>337783.8795326142</v>
+        <v>447129.1451511772</v>
       </c>
       <c r="AE2" t="n">
-        <v>462170.8059495604</v>
+        <v>611781.8223415382</v>
       </c>
       <c r="AF2" t="n">
         <v>1.401208929180932e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.07552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>418061.8728905336</v>
+        <v>553394.2238584415</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.1059756794185</v>
+        <v>236.7612670250165</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.0606975224488</v>
+        <v>323.9472107133943</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.6724484958266</v>
+        <v>293.0301435857699</v>
       </c>
       <c r="AD2" t="n">
-        <v>179105.9756794185</v>
+        <v>236761.2670250165</v>
       </c>
       <c r="AE2" t="n">
-        <v>245060.6975224488</v>
+        <v>323947.2107133943</v>
       </c>
       <c r="AF2" t="n">
         <v>1.452817051261375e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>221672.4484958266</v>
+        <v>293030.1435857699</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.2206668446348</v>
+        <v>243.5713197946891</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.427087735829</v>
+        <v>333.2650253511801</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.2403621695469</v>
+        <v>301.4586790721634</v>
       </c>
       <c r="AD2" t="n">
-        <v>185220.6668446348</v>
+        <v>243571.3197946892</v>
       </c>
       <c r="AE2" t="n">
-        <v>253427.0877358291</v>
+        <v>333265.0253511801</v>
       </c>
       <c r="AF2" t="n">
         <v>1.32259601302497e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>229240.3621695469</v>
+        <v>301458.6790721634</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.7422613275614</v>
+        <v>238.8282320407183</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.6170945652078</v>
+        <v>326.7753234359368</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.3210069436234</v>
+        <v>295.588345199355</v>
       </c>
       <c r="AD3" t="n">
-        <v>170742.2613275613</v>
+        <v>238828.2320407183</v>
       </c>
       <c r="AE3" t="n">
-        <v>233617.0945652078</v>
+        <v>326775.3234359368</v>
       </c>
       <c r="AF3" t="n">
         <v>1.37836343653771e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.88151041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>211321.0069436234</v>
+        <v>295588.345199355</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.7856365965247</v>
+        <v>606.1543650327903</v>
       </c>
       <c r="AB2" t="n">
-        <v>619.5212834838533</v>
+        <v>829.3671438811192</v>
       </c>
       <c r="AC2" t="n">
-        <v>560.395041691736</v>
+        <v>750.2135076932017</v>
       </c>
       <c r="AD2" t="n">
-        <v>452785.6365965247</v>
+        <v>606154.3650327903</v>
       </c>
       <c r="AE2" t="n">
-        <v>619521.2834838532</v>
+        <v>829367.1438811192</v>
       </c>
       <c r="AF2" t="n">
         <v>1.225921013812032e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.40885416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>560395.041691736</v>
+        <v>750213.5076932017</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.9237802594155</v>
+        <v>266.9582154753152</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.9127802823917</v>
+        <v>365.2640077785895</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.6754903748313</v>
+        <v>330.4037235274548</v>
       </c>
       <c r="AD2" t="n">
-        <v>200923.7802594155</v>
+        <v>266958.2154753152</v>
       </c>
       <c r="AE2" t="n">
-        <v>274912.7802823917</v>
+        <v>365264.0077785895</v>
       </c>
       <c r="AF2" t="n">
         <v>1.535101770164489e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.10807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>248675.4903748313</v>
+        <v>330403.7235274548</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.5559206760493</v>
+        <v>246.4063909011229</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.6763321170111</v>
+        <v>337.1440947135108</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.2293277887326</v>
+        <v>304.9675354988626</v>
       </c>
       <c r="AD2" t="n">
-        <v>179555.9206760493</v>
+        <v>246406.3909011229</v>
       </c>
       <c r="AE2" t="n">
-        <v>245676.3321170111</v>
+        <v>337144.0947135108</v>
       </c>
       <c r="AF2" t="n">
         <v>1.486564576151825e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.97526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>222229.3277887326</v>
+        <v>304967.5354988626</v>
       </c>
     </row>
   </sheetData>
